--- a/Car_TestCases/Car_TC_User_and_Guest.xlsx
+++ b/Car_TestCases/Car_TC_User_and_Guest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Test case ID</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>Car_User_01</t>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>"Home" tab shall be presented in landing home page and it shall be clickable and also shall navigate to "Home" web page</t>
+  </si>
+  <si>
+    <t>Sara</t>
   </si>
 </sst>
 </file>
@@ -582,27 +582,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="89.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="40" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="20.88671875" style="2"/>
+    <col min="5" max="5" width="34.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="20.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,27 +640,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>12</v>
@@ -668,28 +668,31 @@
       <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>12</v>
@@ -697,28 +700,31 @@
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>12</v>
@@ -726,28 +732,31 @@
       <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>12</v>
@@ -755,45 +764,54 @@
       <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>12</v>
@@ -801,62 +819,27 @@
       <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="149.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" s="11" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
-      <c r="J10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="D13" s="4"/>
-      <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
